--- a/src/main/java/testing/excel/hw3_result.xlsx
+++ b/src/main/java/testing/excel/hw3_result.xlsx
@@ -6,8 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" r:id="rId3" sheetId="1"/>
-    <sheet name="2" r:id="rId4" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -108,9 +107,14 @@
           <t>hosts</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>peripherals</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>peripherals</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -126,8 +130,11 @@
       <c r="B2" t="n">
         <v>21.0</v>
       </c>
+      <c r="C2" t="n">
+        <v>22.0</v>
+      </c>
       <c r="D2" t="n">
-        <v>22.0</v>
+        <v>423.0</v>
       </c>
       <c r="E2" t="n">
         <v>423.0</v>
@@ -140,8 +147,11 @@
       <c r="B3" t="n">
         <v>19.0</v>
       </c>
+      <c r="C3" t="n">
+        <v>33.0</v>
+      </c>
       <c r="D3" t="n">
-        <v>33.0</v>
+        <v>500.0</v>
       </c>
       <c r="E3" t="n">
         <v>500.0</v>
@@ -154,8 +164,11 @@
       <c r="B4" t="n">
         <v>12.0</v>
       </c>
+      <c r="C4" t="n">
+        <v>12.0</v>
+      </c>
       <c r="D4" t="n">
-        <v>12.0</v>
+        <v>202.5</v>
       </c>
       <c r="E4" t="n">
         <v>202.5</v>
@@ -168,393 +181,11 @@
       <c r="B5" t="n">
         <v>15.0</v>
       </c>
+      <c r="C5" t="n">
+        <v>29.0</v>
+      </c>
       <c r="D5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="E5" t="n">
         <v>426.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>228.75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>266.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>262.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>44640.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>displays</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>hosts</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>peripherals</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>423.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>202.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.0</v>
       </c>
       <c r="E5" t="n">
         <v>426.0</v>
@@ -567,8 +198,11 @@
       <c r="B6" t="n">
         <v>21.0</v>
       </c>
+      <c r="C6" t="n">
+        <v>23.0</v>
+      </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>450.0</v>
       </c>
       <c r="E6" t="n">
         <v>450.0</v>
@@ -581,8 +215,11 @@
       <c r="B7" t="n">
         <v>1.0</v>
       </c>
+      <c r="C7" t="n">
+        <v>500000.0</v>
+      </c>
       <c r="D7" t="n">
-        <v>500000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E7" t="n">
         <v>-1.0</v>
@@ -595,8 +232,11 @@
       <c r="B8" t="n">
         <v>2.0</v>
       </c>
+      <c r="C8" t="n">
+        <v>500000.0</v>
+      </c>
       <c r="D8" t="n">
-        <v>500000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E8" t="n">
         <v>-1.0</v>
@@ -609,8 +249,11 @@
       <c r="B9" t="n">
         <v>3.0</v>
       </c>
+      <c r="C9" t="n">
+        <v>500000.0</v>
+      </c>
       <c r="D9" t="n">
-        <v>500000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E9" t="n">
         <v>-1.0</v>
@@ -623,8 +266,11 @@
       <c r="B10" t="n">
         <v>5.0</v>
       </c>
+      <c r="C10" t="n">
+        <v>500000.0</v>
+      </c>
       <c r="D10" t="n">
-        <v>500000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E10" t="n">
         <v>-1.0</v>
@@ -637,8 +283,11 @@
       <c r="B11" t="n">
         <v>8.0</v>
       </c>
+      <c r="C11" t="n">
+        <v>500000.0</v>
+      </c>
       <c r="D11" t="n">
-        <v>500000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E11" t="n">
         <v>-1.0</v>
@@ -651,8 +300,11 @@
       <c r="B12" t="n">
         <v>-3.0</v>
       </c>
+      <c r="C12" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D12" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E12" t="n">
         <v>-1.0</v>
@@ -665,8 +317,11 @@
       <c r="B13" t="n">
         <v>-3.0</v>
       </c>
+      <c r="C13" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D13" t="n">
-        <v>80.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E13" t="n">
         <v>-1.0</v>
@@ -679,8 +334,11 @@
       <c r="B14" t="n">
         <v>-3.0</v>
       </c>
+      <c r="C14" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D14" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E14" t="n">
         <v>-1.0</v>
@@ -693,8 +351,11 @@
       <c r="B15" t="n">
         <v>-3.0</v>
       </c>
+      <c r="C15" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D15" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E15" t="n">
         <v>-1.0</v>
@@ -707,8 +368,11 @@
       <c r="B16" t="n">
         <v>-3.0</v>
       </c>
+      <c r="C16" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D16" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E16" t="n">
         <v>-1.0</v>
@@ -721,8 +385,11 @@
       <c r="B17" t="n">
         <v>12.0</v>
       </c>
+      <c r="C17" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D17" t="n">
-        <v>20.0</v>
+        <v>270.0</v>
       </c>
       <c r="E17" t="n">
         <v>270.0</v>
@@ -735,8 +402,11 @@
       <c r="B18" t="n">
         <v>14.0</v>
       </c>
+      <c r="C18" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D18" t="n">
-        <v>80.0</v>
+        <v>1270.0</v>
       </c>
       <c r="E18" t="n">
         <v>1270.0</v>
@@ -749,8 +419,11 @@
       <c r="B19" t="n">
         <v>15.0</v>
       </c>
+      <c r="C19" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D19" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E19" t="n">
         <v>-1.0</v>
@@ -763,8 +436,11 @@
       <c r="B20" t="n">
         <v>12.0</v>
       </c>
+      <c r="C20" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D20" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E20" t="n">
         <v>-1.0</v>
@@ -777,8 +453,11 @@
       <c r="B21" t="n">
         <v>12.0</v>
       </c>
+      <c r="C21" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D21" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E21" t="n">
         <v>-1.0</v>
@@ -791,8 +470,11 @@
       <c r="B22" t="n">
         <v>1.0</v>
       </c>
+      <c r="C22" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D22" t="n">
-        <v>20.0</v>
+        <v>228.75</v>
       </c>
       <c r="E22" t="n">
         <v>228.75</v>
@@ -805,8 +487,11 @@
       <c r="B23" t="n">
         <v>1.0</v>
       </c>
+      <c r="C23" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D23" t="n">
-        <v>80.0</v>
+        <v>1205.0</v>
       </c>
       <c r="E23" t="n">
         <v>1205.0</v>
@@ -819,8 +504,11 @@
       <c r="B24" t="n">
         <v>1.0</v>
       </c>
+      <c r="C24" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D24" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E24" t="n">
         <v>-1.0</v>
@@ -833,8 +521,11 @@
       <c r="B25" t="n">
         <v>1.0</v>
       </c>
+      <c r="C25" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D25" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E25" t="n">
         <v>-1.0</v>
@@ -847,8 +538,11 @@
       <c r="B26" t="n">
         <v>1.0</v>
       </c>
+      <c r="C26" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D26" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E26" t="n">
         <v>-1.0</v>
@@ -861,8 +555,11 @@
       <c r="B27" t="n">
         <v>2.0</v>
       </c>
+      <c r="C27" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D27" t="n">
-        <v>20.0</v>
+        <v>232.5</v>
       </c>
       <c r="E27" t="n">
         <v>232.5</v>
@@ -875,8 +572,11 @@
       <c r="B28" t="n">
         <v>2.0</v>
       </c>
+      <c r="C28" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D28" t="n">
-        <v>80.0</v>
+        <v>1210.0</v>
       </c>
       <c r="E28" t="n">
         <v>1210.0</v>
@@ -889,8 +589,11 @@
       <c r="B29" t="n">
         <v>2.0</v>
       </c>
+      <c r="C29" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D29" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E29" t="n">
         <v>-1.0</v>
@@ -903,8 +606,11 @@
       <c r="B30" t="n">
         <v>2.0</v>
       </c>
+      <c r="C30" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D30" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E30" t="n">
         <v>-1.0</v>
@@ -917,8 +623,11 @@
       <c r="B31" t="n">
         <v>2.0</v>
       </c>
+      <c r="C31" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D31" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E31" t="n">
         <v>-1.0</v>
@@ -931,8 +640,11 @@
       <c r="B32" t="n">
         <v>3.0</v>
       </c>
+      <c r="C32" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D32" t="n">
-        <v>20.0</v>
+        <v>236.25</v>
       </c>
       <c r="E32" t="n">
         <v>236.25</v>
@@ -945,8 +657,11 @@
       <c r="B33" t="n">
         <v>3.0</v>
       </c>
+      <c r="C33" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D33" t="n">
-        <v>80.0</v>
+        <v>1215.0</v>
       </c>
       <c r="E33" t="n">
         <v>1215.0</v>
@@ -959,8 +674,11 @@
       <c r="B34" t="n">
         <v>3.0</v>
       </c>
+      <c r="C34" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D34" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E34" t="n">
         <v>-1.0</v>
@@ -973,8 +691,11 @@
       <c r="B35" t="n">
         <v>3.0</v>
       </c>
+      <c r="C35" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D35" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E35" t="n">
         <v>-1.0</v>
@@ -987,8 +708,11 @@
       <c r="B36" t="n">
         <v>3.0</v>
       </c>
+      <c r="C36" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D36" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E36" t="n">
         <v>-1.0</v>
@@ -1001,8 +725,11 @@
       <c r="B37" t="n">
         <v>4.0</v>
       </c>
+      <c r="C37" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D37" t="n">
-        <v>20.0</v>
+        <v>240.0</v>
       </c>
       <c r="E37" t="n">
         <v>240.0</v>
@@ -1015,8 +742,11 @@
       <c r="B38" t="n">
         <v>5.0</v>
       </c>
+      <c r="C38" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D38" t="n">
-        <v>80.0</v>
+        <v>1225.0</v>
       </c>
       <c r="E38" t="n">
         <v>1225.0</v>
@@ -1029,8 +759,11 @@
       <c r="B39" t="n">
         <v>6.0</v>
       </c>
+      <c r="C39" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D39" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E39" t="n">
         <v>-1.0</v>
@@ -1043,8 +776,11 @@
       <c r="B40" t="n">
         <v>5.0</v>
       </c>
+      <c r="C40" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D40" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E40" t="n">
         <v>-1.0</v>
@@ -1057,8 +793,11 @@
       <c r="B41" t="n">
         <v>6.0</v>
       </c>
+      <c r="C41" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D41" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E41" t="n">
         <v>-1.0</v>
@@ -1071,8 +810,11 @@
       <c r="B42" t="n">
         <v>7.0</v>
       </c>
+      <c r="C42" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D42" t="n">
-        <v>20.0</v>
+        <v>251.25</v>
       </c>
       <c r="E42" t="n">
         <v>251.25</v>
@@ -1085,8 +827,11 @@
       <c r="B43" t="n">
         <v>8.0</v>
       </c>
+      <c r="C43" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D43" t="n">
-        <v>80.0</v>
+        <v>1240.0</v>
       </c>
       <c r="E43" t="n">
         <v>1240.0</v>
@@ -1099,8 +844,11 @@
       <c r="B44" t="n">
         <v>9.0</v>
       </c>
+      <c r="C44" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D44" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E44" t="n">
         <v>-1.0</v>
@@ -1113,8 +861,11 @@
       <c r="B45" t="n">
         <v>8.0</v>
       </c>
+      <c r="C45" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D45" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E45" t="n">
         <v>-1.0</v>
@@ -1127,8 +878,11 @@
       <c r="B46" t="n">
         <v>9.0</v>
       </c>
+      <c r="C46" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D46" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E46" t="n">
         <v>-1.0</v>
